--- a/PMS/doc/log_201608040229_朱才富.xlsx
+++ b/PMS/doc/log_201608040229_朱才富.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,19 +67,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.学会eclipse的maven+spring项目的构建。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.能创建数据库表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只学会学会eclipse的maven+spring项目的构建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续学习创建数据库表</t>
+    <t>能创建数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,19 +483,16 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
